--- a/data/adatok.xlsx
+++ b/data/adatok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,103 +451,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>e6b3f50a-6cd0-429d-b74b-fb5f2345cfc5</t>
+          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bugyik Richárd</t>
+          <t>ricsi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2005.03.31.</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36 70 388 3005</t>
+          <t>123123124</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>nemtom@nigmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>659fd72d-85ad-4d5a-95d3-4115f0e4aabd</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cigány</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>cigany@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>47aa7b91-b90a-4a2c-81b1-d663b9e84346</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>nigga</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nigga@asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ea2f952a-741b-4c2f-b028-fc995d8fcca2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12333123</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>asdasd@gmail.hu</t>
+          <t>ricsi@gmail.com</t>
         </is>
       </c>
     </row>

--- a/data/adatok.xlsx
+++ b/data/adatok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
+          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ricsi</t>
+          <t>jozsi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123123124</t>
+          <t>123125124</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ricsi@gmail.com</t>
+          <t>jozsi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8bf742aa-c1f7-4d52-80f9-78cead1eab30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>laci1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1991-01-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>laci@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Géza</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1980-02-02</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11222221</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Geza@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>964046c1-41ba-4195-b016-d5012f3d83af</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gábor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1998-06-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12317658214</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gabor@gmail.com</t>
         </is>
       </c>
     </row>
